--- a/Questionnaire/NEEMSIS2tracking.xlsx
+++ b/Questionnaire/NEEMSIS2tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Documents\GitHub\odriis\Tracking2\FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Documents\GitHub\odriis\Questionnaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9D6AD6-9D2A-4821-B79B-935AB234B2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D523E86B-8C46-427D-83C5-9CB7FE51D40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8880" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11222" uniqueCount="6106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11222" uniqueCount="6105">
   <si>
     <t>type</t>
   </si>
@@ -19072,9 +19072,6 @@
     <t>numbergoods</t>
   </si>
   <si>
-    <t>gooddetails</t>
-  </si>
-  <si>
     <t>notehousingandfacilities</t>
   </si>
   <si>
@@ -21460,6 +21457,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -24018,8 +24016,8 @@
   <dimension ref="A1:Y1410"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.796875" defaultRowHeight="18.600000000000001" customHeight="1"/>
@@ -24158,7 +24156,7 @@
         <v>38</v>
       </c>
       <c r="X3" s="62" t="s">
-        <v>6028</v>
+        <v>6027</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="18.600000000000001" customHeight="1">
@@ -24221,7 +24219,7 @@
         <v>38</v>
       </c>
       <c r="X6" s="62" t="s">
-        <v>6029</v>
+        <v>6028</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="18.600000000000001" customHeight="1">
@@ -24367,7 +24365,7 @@
         <v>385</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>5923</v>
+        <v>5922</v>
       </c>
       <c r="K16" s="60" t="s">
         <v>38</v>
@@ -24469,7 +24467,7 @@
         <v>393</v>
       </c>
       <c r="I27" s="60" t="s">
-        <v>5901</v>
+        <v>5900</v>
       </c>
       <c r="X27" s="49" t="s">
         <v>4650</v>
@@ -24486,7 +24484,7 @@
         <v>5533</v>
       </c>
       <c r="X28" s="62" t="s">
-        <v>6030</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -25013,7 +25011,7 @@
         <v>38</v>
       </c>
       <c r="X65" s="62" t="s">
-        <v>6031</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -25033,7 +25031,7 @@
         <v>38</v>
       </c>
       <c r="X66" s="62" t="s">
-        <v>6032</v>
+        <v>6031</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -25209,7 +25207,7 @@
         <v>470</v>
       </c>
       <c r="C76" s="61" t="s">
-        <v>5650</v>
+        <v>5649</v>
       </c>
       <c r="F76" s="60" t="s">
         <v>398</v>
@@ -25323,19 +25321,19 @@
         <v>2401</v>
       </c>
       <c r="C82" s="61" t="s">
-        <v>5639</v>
+        <v>5638</v>
       </c>
       <c r="H82" s="60" t="s">
         <v>682</v>
       </c>
       <c r="I82" s="60" t="s">
-        <v>5641</v>
+        <v>5640</v>
       </c>
       <c r="K82" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X82" s="49" t="s">
-        <v>5645</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -25343,22 +25341,22 @@
         <v>684</v>
       </c>
       <c r="B83" s="60" t="s">
-        <v>5638</v>
+        <v>5637</v>
       </c>
       <c r="C83" s="61" t="s">
-        <v>5640</v>
+        <v>5639</v>
       </c>
       <c r="H83" s="60" t="s">
         <v>682</v>
       </c>
       <c r="I83" s="60" t="s">
-        <v>5642</v>
+        <v>5641</v>
       </c>
       <c r="K83" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X83" s="49" t="s">
-        <v>5646</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -25366,13 +25364,13 @@
         <v>39</v>
       </c>
       <c r="B84" s="60" t="s">
-        <v>5664</v>
+        <v>5663</v>
       </c>
       <c r="C84" s="61" t="s">
         <v>465</v>
       </c>
       <c r="I84" s="60" t="s">
-        <v>5643</v>
+        <v>5642</v>
       </c>
       <c r="K84" s="60" t="s">
         <v>38</v>
@@ -25386,13 +25384,13 @@
         <v>39</v>
       </c>
       <c r="B85" s="60" t="s">
-        <v>5665</v>
+        <v>5664</v>
       </c>
       <c r="C85" s="61" t="s">
         <v>465</v>
       </c>
       <c r="I85" s="60" t="s">
-        <v>5644</v>
+        <v>5643</v>
       </c>
       <c r="K85" s="60" t="s">
         <v>38</v>
@@ -25431,13 +25429,13 @@
         <v>5085</v>
       </c>
       <c r="C88" s="61" t="s">
-        <v>5625</v>
+        <v>5624</v>
       </c>
       <c r="I88" s="60" t="s">
-        <v>5632</v>
+        <v>5631</v>
       </c>
       <c r="X88" s="62" t="s">
-        <v>6033</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -25468,7 +25466,7 @@
         <v>38</v>
       </c>
       <c r="X90" s="62" t="s">
-        <v>6077</v>
+        <v>6076</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -25518,16 +25516,16 @@
         <v>157</v>
       </c>
       <c r="B94" s="60" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="C94" s="61" t="s">
-        <v>5649</v>
+        <v>5648</v>
       </c>
       <c r="I94" s="60" t="s">
-        <v>5632</v>
+        <v>5631</v>
       </c>
       <c r="X94" s="62" t="s">
-        <v>6034</v>
+        <v>6033</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -25535,13 +25533,13 @@
         <v>36</v>
       </c>
       <c r="B95" s="60" t="s">
+        <v>5613</v>
+      </c>
+      <c r="C95" s="61" t="s">
         <v>5614</v>
       </c>
-      <c r="C95" s="61" t="s">
-        <v>5615</v>
-      </c>
       <c r="X95" s="62" t="s">
-        <v>6092</v>
+        <v>6091</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -25549,16 +25547,16 @@
         <v>37</v>
       </c>
       <c r="B96" s="60" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
       <c r="C96" s="61" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="K96" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X96" s="62" t="s">
-        <v>6093</v>
+        <v>6092</v>
       </c>
     </row>
     <row r="97" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -25566,19 +25564,19 @@
         <v>40</v>
       </c>
       <c r="B97" s="60" t="s">
-        <v>5618</v>
+        <v>5617</v>
       </c>
       <c r="C97" s="61" t="s">
-        <v>5622</v>
+        <v>5621</v>
       </c>
       <c r="I97" s="60" t="s">
-        <v>5621</v>
+        <v>5620</v>
       </c>
       <c r="K97" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X97" s="62" t="s">
-        <v>6094</v>
+        <v>6093</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -25586,13 +25584,13 @@
         <v>36</v>
       </c>
       <c r="B98" s="60" t="s">
-        <v>5620</v>
+        <v>5619</v>
       </c>
       <c r="C98" s="61" t="s">
         <v>468</v>
       </c>
       <c r="X98" s="49" t="s">
-        <v>6036</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -25600,7 +25598,7 @@
         <v>161</v>
       </c>
       <c r="B99" s="60" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -25608,16 +25606,16 @@
         <v>157</v>
       </c>
       <c r="B100" s="60" t="s">
-        <v>5637</v>
+        <v>5636</v>
       </c>
       <c r="C100" s="61" t="s">
-        <v>5648</v>
+        <v>5647</v>
       </c>
       <c r="I100" s="60" t="s">
         <v>5519</v>
       </c>
       <c r="X100" s="62" t="s">
-        <v>6035</v>
+        <v>6034</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -25767,7 +25765,7 @@
         <v>38</v>
       </c>
       <c r="X109" s="62" t="s">
-        <v>6095</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="110" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -25956,7 +25954,7 @@
         <v>161</v>
       </c>
       <c r="B121" s="60" t="s">
-        <v>5637</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="122" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -25964,16 +25962,16 @@
         <v>157</v>
       </c>
       <c r="B122" s="60" t="s">
-        <v>5647</v>
+        <v>5646</v>
       </c>
       <c r="C122" s="61" t="s">
-        <v>5629</v>
+        <v>5628</v>
       </c>
       <c r="I122" s="60" t="s">
         <v>5519</v>
       </c>
       <c r="X122" s="62" t="s">
-        <v>6037</v>
+        <v>6036</v>
       </c>
     </row>
     <row r="123" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -26100,7 +26098,7 @@
         <v>527</v>
       </c>
       <c r="X130" s="62" t="s">
-        <v>6096</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="131" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -26231,7 +26229,7 @@
         <v>161</v>
       </c>
       <c r="B140" s="60" t="s">
-        <v>5647</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="141" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -26261,7 +26259,7 @@
         <v>5534</v>
       </c>
       <c r="X148" s="62" t="s">
-        <v>6097</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="149" spans="1:25" ht="18.600000000000001" customHeight="1">
@@ -26289,7 +26287,7 @@
         <v>5234</v>
       </c>
       <c r="X150" s="62" t="s">
-        <v>6038</v>
+        <v>6037</v>
       </c>
     </row>
     <row r="151" spans="1:25" ht="18.600000000000001" customHeight="1">
@@ -26323,7 +26321,7 @@
         <v>539</v>
       </c>
       <c r="I152" s="60" t="s">
-        <v>5587</v>
+        <v>5586</v>
       </c>
       <c r="K152" s="60" t="s">
         <v>38</v>
@@ -26363,7 +26361,7 @@
         <v>5069</v>
       </c>
       <c r="I154" s="60" t="s">
-        <v>5588</v>
+        <v>5587</v>
       </c>
       <c r="K154" s="60" t="s">
         <v>38</v>
@@ -26392,7 +26390,7 @@
         <v>4736</v>
       </c>
       <c r="I155" s="60" t="s">
-        <v>5589</v>
+        <v>5588</v>
       </c>
       <c r="K155" s="60" t="s">
         <v>38</v>
@@ -26415,7 +26413,7 @@
         <v>4736</v>
       </c>
       <c r="I156" s="60" t="s">
-        <v>5590</v>
+        <v>5589</v>
       </c>
       <c r="K156" s="60" t="s">
         <v>38</v>
@@ -26432,7 +26430,7 @@
         <v>5544</v>
       </c>
       <c r="N157" s="60" t="s">
-        <v>5592</v>
+        <v>5591</v>
       </c>
     </row>
     <row r="158" spans="1:25" ht="18.600000000000001" customHeight="1">
@@ -26483,7 +26481,7 @@
         <v>384</v>
       </c>
       <c r="I160" s="60" t="s">
-        <v>5591</v>
+        <v>5590</v>
       </c>
       <c r="X160" s="49" t="s">
         <v>3338</v>
@@ -26575,7 +26573,7 @@
         <v>468</v>
       </c>
       <c r="X167" s="49" t="s">
-        <v>6036</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="168" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -26589,7 +26587,7 @@
         <v>5235</v>
       </c>
       <c r="X168" s="62" t="s">
-        <v>6039</v>
+        <v>6038</v>
       </c>
     </row>
     <row r="169" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -26603,7 +26601,7 @@
         <v>5095</v>
       </c>
       <c r="X169" s="62" t="s">
-        <v>6040</v>
+        <v>6039</v>
       </c>
     </row>
     <row r="170" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -26640,7 +26638,7 @@
         <v>384</v>
       </c>
       <c r="I171" s="60" t="s">
-        <v>5593</v>
+        <v>5592</v>
       </c>
       <c r="O171" s="60">
         <v>6</v>
@@ -26674,7 +26672,7 @@
         <v>4764</v>
       </c>
       <c r="N173" s="60" t="s">
-        <v>5595</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="174" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -26685,19 +26683,19 @@
         <v>5556</v>
       </c>
       <c r="C174" s="61" t="s">
-        <v>5605</v>
+        <v>5604</v>
       </c>
       <c r="F174" s="60" t="s">
         <v>4764</v>
       </c>
       <c r="I174" s="60" t="s">
-        <v>5594</v>
+        <v>5593</v>
       </c>
       <c r="K174" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X174" s="49" t="s">
-        <v>5662</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="175" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -26708,19 +26706,19 @@
         <v>5557</v>
       </c>
       <c r="C175" s="61" t="s">
-        <v>5606</v>
+        <v>5605</v>
       </c>
       <c r="F175" s="60" t="s">
         <v>4764</v>
       </c>
       <c r="I175" s="60" t="s">
-        <v>5594</v>
+        <v>5593</v>
       </c>
       <c r="K175" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X175" s="49" t="s">
-        <v>5663</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="176" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -26739,10 +26737,10 @@
         <v>147</v>
       </c>
       <c r="B177" s="60" t="s">
+        <v>5608</v>
+      </c>
+      <c r="N177" s="60" t="s">
         <v>5609</v>
-      </c>
-      <c r="N177" s="60" t="s">
-        <v>5610</v>
       </c>
     </row>
     <row r="178" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -26905,7 +26903,7 @@
         <v>468</v>
       </c>
       <c r="X188" s="49" t="s">
-        <v>6036</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="189" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -26919,7 +26917,7 @@
         <v>5525</v>
       </c>
       <c r="X189" s="62" t="s">
-        <v>6041</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="190" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -26959,7 +26957,7 @@
         <v>4764</v>
       </c>
       <c r="I191" s="60" t="s">
-        <v>5596</v>
+        <v>5595</v>
       </c>
       <c r="K191" s="60" t="s">
         <v>38</v>
@@ -26976,13 +26974,13 @@
         <v>5567</v>
       </c>
       <c r="C192" s="61" t="s">
-        <v>5604</v>
+        <v>5603</v>
       </c>
       <c r="F192" s="60" t="s">
         <v>4764</v>
       </c>
       <c r="I192" s="60" t="s">
-        <v>5597</v>
+        <v>5596</v>
       </c>
       <c r="K192" s="60" t="s">
         <v>38</v>
@@ -27019,7 +27017,7 @@
         <v>4764</v>
       </c>
       <c r="N194" s="60" t="s">
-        <v>5599</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="195" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27047,7 +27045,7 @@
         <v>5571</v>
       </c>
       <c r="C196" s="61" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
       <c r="F196" s="60" t="s">
         <v>4764</v>
@@ -27056,13 +27054,13 @@
         <v>5102</v>
       </c>
       <c r="I196" s="60" t="s">
-        <v>5598</v>
+        <v>5597</v>
       </c>
       <c r="K196" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X196" s="49" t="s">
-        <v>5660</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="197" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27070,22 +27068,22 @@
         <v>40</v>
       </c>
       <c r="B197" s="60" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
       <c r="C197" s="61" t="s">
-        <v>5608</v>
+        <v>5607</v>
       </c>
       <c r="F197" s="60" t="s">
         <v>4764</v>
       </c>
       <c r="I197" s="60" t="s">
-        <v>5598</v>
+        <v>5597</v>
       </c>
       <c r="K197" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X197" s="49" t="s">
-        <v>5661</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="198" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27104,10 +27102,10 @@
         <v>147</v>
       </c>
       <c r="B199" s="60" t="s">
-        <v>5611</v>
+        <v>5610</v>
       </c>
       <c r="N199" s="60" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="200" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27115,7 +27113,7 @@
         <v>165</v>
       </c>
       <c r="B200" s="60" t="s">
-        <v>5572</v>
+        <v>5567</v>
       </c>
     </row>
     <row r="201" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27137,7 +27135,7 @@
         <v>36</v>
       </c>
       <c r="B202" s="60" t="s">
-        <v>5573</v>
+        <v>5572</v>
       </c>
       <c r="C202" s="61" t="s">
         <v>554</v>
@@ -27154,7 +27152,7 @@
         <v>157</v>
       </c>
       <c r="B203" s="60" t="s">
-        <v>5574</v>
+        <v>5573</v>
       </c>
       <c r="C203" s="61" t="s">
         <v>555</v>
@@ -27188,7 +27186,7 @@
         <v>557</v>
       </c>
       <c r="B205" s="60" t="s">
-        <v>5575</v>
+        <v>5574</v>
       </c>
       <c r="C205" s="61" t="s">
         <v>558</v>
@@ -27205,13 +27203,13 @@
         <v>40</v>
       </c>
       <c r="B206" s="60" t="s">
-        <v>5576</v>
+        <v>5575</v>
       </c>
       <c r="C206" s="61" t="s">
         <v>559</v>
       </c>
       <c r="I206" s="60" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="K206" s="60" t="s">
         <v>38</v>
@@ -27225,13 +27223,13 @@
         <v>40</v>
       </c>
       <c r="B207" s="60" t="s">
-        <v>5577</v>
+        <v>5576</v>
       </c>
       <c r="C207" s="61" t="s">
         <v>560</v>
       </c>
       <c r="I207" s="60" t="s">
-        <v>5600</v>
+        <v>5599</v>
       </c>
       <c r="K207" s="60" t="s">
         <v>38</v>
@@ -27279,7 +27277,7 @@
         <v>40</v>
       </c>
       <c r="B210" s="60" t="s">
-        <v>5578</v>
+        <v>5577</v>
       </c>
       <c r="C210" s="61" t="s">
         <v>565</v>
@@ -27296,7 +27294,7 @@
         <v>37</v>
       </c>
       <c r="B211" s="60" t="s">
-        <v>5579</v>
+        <v>5578</v>
       </c>
       <c r="C211" s="61" t="s">
         <v>591</v>
@@ -27313,7 +27311,7 @@
         <v>37</v>
       </c>
       <c r="B212" s="60" t="s">
-        <v>5580</v>
+        <v>5579</v>
       </c>
       <c r="C212" s="61" t="s">
         <v>592</v>
@@ -27338,13 +27336,13 @@
         <v>157</v>
       </c>
       <c r="B214" s="60" t="s">
-        <v>5581</v>
+        <v>5580</v>
       </c>
       <c r="C214" s="61" t="s">
         <v>590</v>
       </c>
       <c r="X214" s="62" t="s">
-        <v>6042</v>
+        <v>6041</v>
       </c>
     </row>
     <row r="215" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27352,13 +27350,13 @@
         <v>40</v>
       </c>
       <c r="B215" s="60" t="s">
-        <v>5582</v>
+        <v>5581</v>
       </c>
       <c r="C215" s="61" t="s">
         <v>593</v>
       </c>
       <c r="I215" s="60" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="K215" s="60" t="s">
         <v>38</v>
@@ -27372,13 +27370,13 @@
         <v>40</v>
       </c>
       <c r="B216" s="60" t="s">
-        <v>5583</v>
+        <v>5582</v>
       </c>
       <c r="C216" s="61" t="s">
         <v>594</v>
       </c>
       <c r="I216" s="60" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="K216" s="60" t="s">
         <v>38</v>
@@ -27392,7 +27390,7 @@
         <v>161</v>
       </c>
       <c r="B217" s="60" t="s">
-        <v>5581</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="218" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27408,7 +27406,7 @@
         <v>157</v>
       </c>
       <c r="B219" s="60" t="s">
-        <v>5584</v>
+        <v>5583</v>
       </c>
       <c r="C219" s="61" t="s">
         <v>566</v>
@@ -27485,7 +27483,7 @@
         <v>38</v>
       </c>
       <c r="X223" s="49" t="s">
-        <v>6098</v>
+        <v>6097</v>
       </c>
     </row>
     <row r="224" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27507,7 +27505,7 @@
         <v>579</v>
       </c>
       <c r="I225" s="60" t="s">
-        <v>5603</v>
+        <v>5602</v>
       </c>
       <c r="K225" s="60" t="s">
         <v>38</v>
@@ -27521,7 +27519,7 @@
         <v>161</v>
       </c>
       <c r="B226" s="60" t="s">
-        <v>5584</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="227" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27529,7 +27527,7 @@
         <v>161</v>
       </c>
       <c r="B227" s="60" t="s">
-        <v>5574</v>
+        <v>5573</v>
       </c>
     </row>
     <row r="228" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27543,7 +27541,7 @@
         <v>468</v>
       </c>
       <c r="X228" s="49" t="s">
-        <v>6036</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="229" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27551,7 +27549,7 @@
         <v>36</v>
       </c>
       <c r="B229" s="60" t="s">
-        <v>5585</v>
+        <v>5584</v>
       </c>
       <c r="C229" s="61" t="s">
         <v>580</v>
@@ -27568,7 +27566,7 @@
         <v>157</v>
       </c>
       <c r="B230" s="60" t="s">
-        <v>5586</v>
+        <v>5585</v>
       </c>
       <c r="C230" s="61" t="s">
         <v>581</v>
@@ -27616,7 +27614,7 @@
         <v>161</v>
       </c>
       <c r="B233" s="60" t="s">
-        <v>5586</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="234" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27649,16 +27647,16 @@
         <v>157</v>
       </c>
       <c r="B241" s="60" t="s">
+        <v>5943</v>
+      </c>
+      <c r="C241" s="61" t="s">
         <v>5944</v>
-      </c>
-      <c r="C241" s="61" t="s">
-        <v>5945</v>
       </c>
       <c r="F241" s="60" t="s">
         <v>384</v>
       </c>
       <c r="X241" s="62" t="s">
-        <v>6043</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="242" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27675,7 +27673,7 @@
         <v>38</v>
       </c>
       <c r="X242" s="62" t="s">
-        <v>6044</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="243" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27686,13 +27684,13 @@
         <v>5139</v>
       </c>
       <c r="C243" s="61" t="s">
-        <v>5672</v>
+        <v>5671</v>
       </c>
       <c r="K243" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X243" s="62" t="s">
-        <v>6045</v>
+        <v>6044</v>
       </c>
     </row>
     <row r="244" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27700,7 +27698,7 @@
         <v>161</v>
       </c>
       <c r="B244" s="60" t="s">
-        <v>5944</v>
+        <v>5943</v>
       </c>
     </row>
     <row r="245" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27714,7 +27712,7 @@
         <v>5232</v>
       </c>
       <c r="X245" s="62" t="s">
-        <v>6046</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="246" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27728,7 +27726,7 @@
         <v>5236</v>
       </c>
       <c r="X246" s="62" t="s">
-        <v>6047</v>
+        <v>6046</v>
       </c>
     </row>
     <row r="247" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27739,10 +27737,10 @@
         <v>5215</v>
       </c>
       <c r="C247" s="61" t="s">
-        <v>5946</v>
+        <v>5945</v>
       </c>
       <c r="X247" s="62" t="s">
-        <v>6048</v>
+        <v>6047</v>
       </c>
     </row>
     <row r="248" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27770,7 +27768,7 @@
         <v>38</v>
       </c>
       <c r="X249" s="62" t="s">
-        <v>6099</v>
+        <v>6098</v>
       </c>
     </row>
     <row r="250" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27787,7 +27785,7 @@
         <v>38</v>
       </c>
       <c r="X250" s="62" t="s">
-        <v>6049</v>
+        <v>6048</v>
       </c>
     </row>
     <row r="251" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27804,7 +27802,7 @@
         <v>398</v>
       </c>
       <c r="X251" s="62" t="s">
-        <v>6043</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="252" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27821,7 +27819,7 @@
         <v>384</v>
       </c>
       <c r="X252" s="62" t="s">
-        <v>6050</v>
+        <v>6049</v>
       </c>
     </row>
     <row r="253" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27838,7 +27836,7 @@
         <v>38</v>
       </c>
       <c r="X253" s="62" t="s">
-        <v>6051</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="254" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27946,7 +27944,7 @@
         <v>38</v>
       </c>
       <c r="X259" s="62" t="s">
-        <v>6052</v>
+        <v>6051</v>
       </c>
     </row>
     <row r="260" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27966,7 +27964,7 @@
         <v>38</v>
       </c>
       <c r="X260" s="62" t="s">
-        <v>6053</v>
+        <v>6052</v>
       </c>
     </row>
     <row r="261" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -27986,7 +27984,7 @@
         <v>38</v>
       </c>
       <c r="X261" s="62" t="s">
-        <v>6054</v>
+        <v>6053</v>
       </c>
     </row>
     <row r="262" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28045,16 +28043,16 @@
         <v>162</v>
       </c>
       <c r="B265" s="60" t="s">
-        <v>5722</v>
+        <v>5721</v>
       </c>
       <c r="C265" s="61" t="s">
-        <v>5924</v>
+        <v>5923</v>
       </c>
       <c r="I265" s="60" t="s">
-        <v>5927</v>
+        <v>5926</v>
       </c>
       <c r="X265" s="62" t="s">
-        <v>6055</v>
+        <v>6054</v>
       </c>
     </row>
     <row r="266" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28062,7 +28060,7 @@
         <v>147</v>
       </c>
       <c r="B266" s="60" t="s">
-        <v>5723</v>
+        <v>5722</v>
       </c>
       <c r="N266" s="60" t="s">
         <v>310</v>
@@ -28073,16 +28071,16 @@
         <v>39</v>
       </c>
       <c r="B267" s="60" t="s">
-        <v>5724</v>
+        <v>5723</v>
       </c>
       <c r="C267" s="61" t="s">
-        <v>5803</v>
+        <v>5802</v>
       </c>
       <c r="D267" s="60" t="s">
         <v>615</v>
       </c>
       <c r="X267" s="49" t="s">
-        <v>5869</v>
+        <v>5868</v>
       </c>
     </row>
     <row r="268" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28090,16 +28088,16 @@
         <v>157</v>
       </c>
       <c r="B268" s="60" t="s">
+        <v>5724</v>
+      </c>
+      <c r="C268" s="61" t="s">
         <v>5725</v>
-      </c>
-      <c r="C268" s="61" t="s">
-        <v>5726</v>
       </c>
       <c r="F268" s="60" t="s">
         <v>384</v>
       </c>
       <c r="X268" s="62" t="s">
-        <v>6056</v>
+        <v>6055</v>
       </c>
     </row>
     <row r="269" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28107,10 +28105,10 @@
         <v>616</v>
       </c>
       <c r="B269" s="60" t="s">
+        <v>5726</v>
+      </c>
+      <c r="C269" s="61" t="s">
         <v>5727</v>
-      </c>
-      <c r="C269" s="61" t="s">
-        <v>5728</v>
       </c>
       <c r="G269" s="60" t="s">
         <v>617</v>
@@ -28119,7 +28117,7 @@
         <v>38</v>
       </c>
       <c r="X269" s="49" t="s">
-        <v>5729</v>
+        <v>5728</v>
       </c>
     </row>
     <row r="270" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28127,16 +28125,16 @@
         <v>443</v>
       </c>
       <c r="B270" s="60" t="s">
+        <v>5729</v>
+      </c>
+      <c r="C270" s="61" t="s">
         <v>5730</v>
-      </c>
-      <c r="C270" s="61" t="s">
-        <v>5731</v>
       </c>
       <c r="K270" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X270" s="49" t="s">
-        <v>5732</v>
+        <v>5731</v>
       </c>
     </row>
     <row r="271" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28144,16 +28142,16 @@
         <v>618</v>
       </c>
       <c r="B271" s="60" t="s">
+        <v>5732</v>
+      </c>
+      <c r="C271" s="61" t="s">
         <v>5733</v>
-      </c>
-      <c r="C271" s="61" t="s">
-        <v>5734</v>
       </c>
       <c r="K271" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X271" s="49" t="s">
-        <v>5735</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="272" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28161,16 +28159,16 @@
         <v>619</v>
       </c>
       <c r="B272" s="60" t="s">
+        <v>5735</v>
+      </c>
+      <c r="C272" s="61" t="s">
         <v>5736</v>
-      </c>
-      <c r="C272" s="61" t="s">
-        <v>5737</v>
       </c>
       <c r="K272" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X272" s="49" t="s">
-        <v>5738</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="273" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28178,7 +28176,7 @@
         <v>161</v>
       </c>
       <c r="B273" s="60" t="s">
-        <v>5725</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="274" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28186,13 +28184,13 @@
         <v>39</v>
       </c>
       <c r="B274" s="60" t="s">
-        <v>5739</v>
+        <v>5738</v>
       </c>
       <c r="C274" s="61" t="s">
         <v>465</v>
       </c>
       <c r="I274" s="60" t="s">
-        <v>5740</v>
+        <v>5739</v>
       </c>
       <c r="K274" s="60" t="s">
         <v>38</v>
@@ -28206,16 +28204,16 @@
         <v>620</v>
       </c>
       <c r="B275" s="60" t="s">
+        <v>5740</v>
+      </c>
+      <c r="C275" s="61" t="s">
         <v>5741</v>
-      </c>
-      <c r="C275" s="61" t="s">
-        <v>5742</v>
       </c>
       <c r="K275" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X275" s="49" t="s">
-        <v>5743</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="276" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28223,16 +28221,16 @@
         <v>621</v>
       </c>
       <c r="B276" s="60" t="s">
+        <v>5743</v>
+      </c>
+      <c r="C276" s="61" t="s">
         <v>5744</v>
-      </c>
-      <c r="C276" s="61" t="s">
-        <v>5745</v>
       </c>
       <c r="K276" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X276" s="49" t="s">
-        <v>5746</v>
+        <v>5745</v>
       </c>
     </row>
     <row r="277" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28240,16 +28238,16 @@
         <v>39</v>
       </c>
       <c r="B277" s="60" t="s">
+        <v>5746</v>
+      </c>
+      <c r="C277" s="61" t="s">
         <v>5747</v>
       </c>
-      <c r="C277" s="61" t="s">
+      <c r="I277" s="60" t="s">
         <v>5748</v>
       </c>
-      <c r="I277" s="60" t="s">
+      <c r="X277" s="49" t="s">
         <v>5749</v>
-      </c>
-      <c r="X277" s="49" t="s">
-        <v>5750</v>
       </c>
     </row>
     <row r="278" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28257,16 +28255,16 @@
         <v>157</v>
       </c>
       <c r="B278" s="60" t="s">
+        <v>5750</v>
+      </c>
+      <c r="C278" s="61" t="s">
         <v>5751</v>
-      </c>
-      <c r="C278" s="61" t="s">
-        <v>5752</v>
       </c>
       <c r="F278" s="60" t="s">
         <v>384</v>
       </c>
       <c r="X278" s="49" t="s">
-        <v>5753</v>
+        <v>5752</v>
       </c>
     </row>
     <row r="279" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28274,16 +28272,16 @@
         <v>622</v>
       </c>
       <c r="B279" s="60" t="s">
+        <v>5753</v>
+      </c>
+      <c r="C279" s="61" t="s">
         <v>5754</v>
-      </c>
-      <c r="C279" s="61" t="s">
-        <v>5755</v>
       </c>
       <c r="K279" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X279" s="49" t="s">
-        <v>5756</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="280" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28291,16 +28289,16 @@
         <v>623</v>
       </c>
       <c r="B280" s="60" t="s">
+        <v>5756</v>
+      </c>
+      <c r="C280" s="61" t="s">
         <v>5757</v>
-      </c>
-      <c r="C280" s="61" t="s">
-        <v>5758</v>
       </c>
       <c r="K280" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X280" s="49" t="s">
-        <v>5759</v>
+        <v>5758</v>
       </c>
     </row>
     <row r="281" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28308,16 +28306,16 @@
         <v>40</v>
       </c>
       <c r="B281" s="60" t="s">
+        <v>5759</v>
+      </c>
+      <c r="C281" s="61" t="s">
         <v>5760</v>
-      </c>
-      <c r="C281" s="61" t="s">
-        <v>5761</v>
       </c>
       <c r="K281" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X281" s="49" t="s">
-        <v>5762</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="282" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28325,16 +28323,16 @@
         <v>624</v>
       </c>
       <c r="B282" s="60" t="s">
+        <v>5762</v>
+      </c>
+      <c r="C282" s="61" t="s">
         <v>5763</v>
-      </c>
-      <c r="C282" s="61" t="s">
-        <v>5764</v>
       </c>
       <c r="K282" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X282" s="49" t="s">
-        <v>5765</v>
+        <v>5764</v>
       </c>
     </row>
     <row r="283" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28342,7 +28340,7 @@
         <v>161</v>
       </c>
       <c r="B283" s="60" t="s">
-        <v>5751</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="284" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28350,13 +28348,13 @@
         <v>39</v>
       </c>
       <c r="B284" s="60" t="s">
-        <v>5766</v>
+        <v>5765</v>
       </c>
       <c r="C284" s="61" t="s">
         <v>465</v>
       </c>
       <c r="I284" s="60" t="s">
-        <v>5767</v>
+        <v>5766</v>
       </c>
       <c r="K284" s="60" t="s">
         <v>38</v>
@@ -28370,16 +28368,16 @@
         <v>157</v>
       </c>
       <c r="B285" s="60" t="s">
+        <v>5767</v>
+      </c>
+      <c r="C285" s="61" t="s">
         <v>5768</v>
-      </c>
-      <c r="C285" s="61" t="s">
-        <v>5769</v>
       </c>
       <c r="F285" s="60" t="s">
         <v>384</v>
       </c>
       <c r="X285" s="49" t="s">
-        <v>5770</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="286" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28387,16 +28385,16 @@
         <v>625</v>
       </c>
       <c r="B286" s="60" t="s">
+        <v>5770</v>
+      </c>
+      <c r="C286" s="61" t="s">
         <v>5771</v>
-      </c>
-      <c r="C286" s="61" t="s">
-        <v>5772</v>
       </c>
       <c r="K286" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X286" s="49" t="s">
-        <v>5773</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="287" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28404,16 +28402,16 @@
         <v>37</v>
       </c>
       <c r="B287" s="60" t="s">
+        <v>5773</v>
+      </c>
+      <c r="C287" s="61" t="s">
         <v>5774</v>
-      </c>
-      <c r="C287" s="61" t="s">
-        <v>5775</v>
       </c>
       <c r="K287" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X287" s="49" t="s">
-        <v>5776</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="288" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28421,16 +28419,16 @@
         <v>37</v>
       </c>
       <c r="B288" s="60" t="s">
+        <v>5776</v>
+      </c>
+      <c r="C288" s="61" t="s">
         <v>5777</v>
-      </c>
-      <c r="C288" s="61" t="s">
-        <v>5778</v>
       </c>
       <c r="K288" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X288" s="49" t="s">
-        <v>5779</v>
+        <v>5778</v>
       </c>
     </row>
     <row r="289" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28438,16 +28436,16 @@
         <v>626</v>
       </c>
       <c r="B289" s="60" t="s">
+        <v>5779</v>
+      </c>
+      <c r="C289" s="61" t="s">
         <v>5780</v>
-      </c>
-      <c r="C289" s="61" t="s">
-        <v>5781</v>
       </c>
       <c r="K289" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X289" s="49" t="s">
-        <v>5782</v>
+        <v>5781</v>
       </c>
     </row>
     <row r="290" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28455,7 +28453,7 @@
         <v>161</v>
       </c>
       <c r="B290" s="60" t="s">
-        <v>5768</v>
+        <v>5767</v>
       </c>
     </row>
     <row r="291" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28463,16 +28461,16 @@
         <v>37</v>
       </c>
       <c r="B291" s="60" t="s">
+        <v>5782</v>
+      </c>
+      <c r="C291" s="61" t="s">
         <v>5783</v>
-      </c>
-      <c r="C291" s="61" t="s">
-        <v>5784</v>
       </c>
       <c r="K291" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X291" s="49" t="s">
-        <v>5785</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="292" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28480,19 +28478,19 @@
         <v>627</v>
       </c>
       <c r="B292" s="60" t="s">
+        <v>5785</v>
+      </c>
+      <c r="C292" s="61" t="s">
         <v>5786</v>
       </c>
-      <c r="C292" s="61" t="s">
+      <c r="I292" s="60" t="s">
         <v>5787</v>
-      </c>
-      <c r="I292" s="60" t="s">
-        <v>5788</v>
       </c>
       <c r="K292" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X292" s="49" t="s">
-        <v>5789</v>
+        <v>5788</v>
       </c>
     </row>
     <row r="293" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28500,13 +28498,13 @@
         <v>39</v>
       </c>
       <c r="B293" s="60" t="s">
-        <v>5790</v>
+        <v>5789</v>
       </c>
       <c r="C293" s="61" t="s">
         <v>628</v>
       </c>
       <c r="I293" s="60" t="s">
-        <v>5791</v>
+        <v>5790</v>
       </c>
       <c r="K293" s="60" t="s">
         <v>38</v>
@@ -28520,13 +28518,13 @@
         <v>37</v>
       </c>
       <c r="B294" s="60" t="s">
+        <v>5791</v>
+      </c>
+      <c r="C294" s="61" t="s">
         <v>5792</v>
       </c>
-      <c r="C294" s="61" t="s">
+      <c r="X294" s="49" t="s">
         <v>5793</v>
-      </c>
-      <c r="X294" s="49" t="s">
-        <v>5794</v>
       </c>
     </row>
     <row r="295" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28534,13 +28532,13 @@
         <v>37</v>
       </c>
       <c r="B295" s="60" t="s">
+        <v>5794</v>
+      </c>
+      <c r="C295" s="61" t="s">
         <v>5795</v>
       </c>
-      <c r="C295" s="61" t="s">
+      <c r="X295" s="49" t="s">
         <v>5796</v>
-      </c>
-      <c r="X295" s="49" t="s">
-        <v>5797</v>
       </c>
     </row>
     <row r="296" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28548,13 +28546,13 @@
         <v>37</v>
       </c>
       <c r="B296" s="60" t="s">
+        <v>5797</v>
+      </c>
+      <c r="C296" s="61" t="s">
         <v>5798</v>
       </c>
-      <c r="C296" s="61" t="s">
+      <c r="X296" s="49" t="s">
         <v>5799</v>
-      </c>
-      <c r="X296" s="49" t="s">
-        <v>5800</v>
       </c>
     </row>
     <row r="297" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28562,7 +28560,7 @@
         <v>165</v>
       </c>
       <c r="B297" s="60" t="s">
-        <v>5722</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="298" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28570,7 +28568,7 @@
         <v>629</v>
       </c>
       <c r="B298" s="60" t="s">
-        <v>5801</v>
+        <v>5800</v>
       </c>
       <c r="C298" s="61" t="s">
         <v>5225</v>
@@ -28593,7 +28591,7 @@
         <v>5226</v>
       </c>
       <c r="I299" s="60" t="s">
-        <v>5809</v>
+        <v>5808</v>
       </c>
       <c r="K299" s="60" t="s">
         <v>38</v>
@@ -28607,13 +28605,13 @@
         <v>162</v>
       </c>
       <c r="B300" s="60" t="s">
-        <v>5802</v>
+        <v>5801</v>
       </c>
       <c r="C300" s="61" t="s">
-        <v>5925</v>
+        <v>5924</v>
       </c>
       <c r="I300" s="60" t="s">
-        <v>5928</v>
+        <v>5927</v>
       </c>
       <c r="X300" s="49" t="s">
         <v>4652</v>
@@ -28624,7 +28622,7 @@
         <v>147</v>
       </c>
       <c r="B301" s="60" t="s">
-        <v>5868</v>
+        <v>5867</v>
       </c>
       <c r="N301" s="60" t="s">
         <v>310</v>
@@ -28635,10 +28633,10 @@
         <v>39</v>
       </c>
       <c r="B302" s="60" t="s">
-        <v>5867</v>
+        <v>5866</v>
       </c>
       <c r="C302" s="61" t="s">
-        <v>5804</v>
+        <v>5803</v>
       </c>
       <c r="D302" s="60" t="s">
         <v>631</v>
@@ -28647,7 +28645,7 @@
         <v>38</v>
       </c>
       <c r="X302" s="49" t="s">
-        <v>5805</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="303" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28655,7 +28653,7 @@
         <v>157</v>
       </c>
       <c r="B303" s="60" t="s">
-        <v>5806</v>
+        <v>5805</v>
       </c>
       <c r="C303" s="61" t="s">
         <v>5416</v>
@@ -28669,10 +28667,10 @@
         <v>616</v>
       </c>
       <c r="B304" s="60" t="s">
+        <v>5809</v>
+      </c>
+      <c r="C304" s="61" t="s">
         <v>5810</v>
-      </c>
-      <c r="C304" s="61" t="s">
-        <v>5811</v>
       </c>
       <c r="G304" s="60" t="s">
         <v>617</v>
@@ -28681,7 +28679,7 @@
         <v>38</v>
       </c>
       <c r="X304" s="49" t="s">
-        <v>5812</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="305" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28689,16 +28687,16 @@
         <v>443</v>
       </c>
       <c r="B305" s="60" t="s">
+        <v>5812</v>
+      </c>
+      <c r="C305" s="61" t="s">
         <v>5813</v>
-      </c>
-      <c r="C305" s="61" t="s">
-        <v>5814</v>
       </c>
       <c r="K305" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X305" s="49" t="s">
-        <v>5815</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="306" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28706,16 +28704,16 @@
         <v>618</v>
       </c>
       <c r="B306" s="60" t="s">
+        <v>5815</v>
+      </c>
+      <c r="C306" s="61" t="s">
         <v>5816</v>
-      </c>
-      <c r="C306" s="61" t="s">
-        <v>5817</v>
       </c>
       <c r="K306" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X306" s="49" t="s">
-        <v>5818</v>
+        <v>5817</v>
       </c>
     </row>
     <row r="307" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28723,16 +28721,16 @@
         <v>619</v>
       </c>
       <c r="B307" s="60" t="s">
+        <v>5818</v>
+      </c>
+      <c r="C307" s="61" t="s">
         <v>5819</v>
-      </c>
-      <c r="C307" s="61" t="s">
-        <v>5820</v>
       </c>
       <c r="K307" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X307" s="49" t="s">
-        <v>5821</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="308" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28740,7 +28738,7 @@
         <v>161</v>
       </c>
       <c r="B308" s="60" t="s">
-        <v>5806</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="309" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28748,13 +28746,13 @@
         <v>39</v>
       </c>
       <c r="B309" s="60" t="s">
-        <v>5822</v>
+        <v>5821</v>
       </c>
       <c r="C309" s="61" t="s">
         <v>465</v>
       </c>
       <c r="I309" s="60" t="s">
-        <v>5823</v>
+        <v>5822</v>
       </c>
       <c r="K309" s="60" t="s">
         <v>38</v>
@@ -28768,16 +28766,16 @@
         <v>620</v>
       </c>
       <c r="B310" s="60" t="s">
+        <v>5823</v>
+      </c>
+      <c r="C310" s="61" t="s">
         <v>5824</v>
-      </c>
-      <c r="C310" s="61" t="s">
-        <v>5825</v>
       </c>
       <c r="K310" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X310" s="49" t="s">
-        <v>5826</v>
+        <v>5825</v>
       </c>
     </row>
     <row r="311" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28785,16 +28783,16 @@
         <v>621</v>
       </c>
       <c r="B311" s="60" t="s">
+        <v>5826</v>
+      </c>
+      <c r="C311" s="61" t="s">
         <v>5827</v>
-      </c>
-      <c r="C311" s="61" t="s">
-        <v>5828</v>
       </c>
       <c r="K311" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X311" s="49" t="s">
-        <v>5829</v>
+        <v>5828</v>
       </c>
     </row>
     <row r="312" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28802,13 +28800,13 @@
         <v>39</v>
       </c>
       <c r="B312" s="60" t="s">
-        <v>5830</v>
+        <v>5829</v>
       </c>
       <c r="C312" s="61" t="s">
         <v>465</v>
       </c>
       <c r="I312" s="60" t="s">
-        <v>5831</v>
+        <v>5830</v>
       </c>
       <c r="K312" s="60" t="s">
         <v>38</v>
@@ -28822,7 +28820,7 @@
         <v>157</v>
       </c>
       <c r="B313" s="60" t="s">
-        <v>5807</v>
+        <v>5806</v>
       </c>
       <c r="C313" s="61" t="s">
         <v>5417</v>
@@ -28831,7 +28829,7 @@
         <v>384</v>
       </c>
       <c r="X313" s="62" t="s">
-        <v>6057</v>
+        <v>6056</v>
       </c>
     </row>
     <row r="314" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28839,16 +28837,16 @@
         <v>622</v>
       </c>
       <c r="B314" s="60" t="s">
+        <v>5831</v>
+      </c>
+      <c r="C314" s="61" t="s">
         <v>5832</v>
-      </c>
-      <c r="C314" s="61" t="s">
-        <v>5833</v>
       </c>
       <c r="K314" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X314" s="49" t="s">
-        <v>5834</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="315" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28856,16 +28854,16 @@
         <v>623</v>
       </c>
       <c r="B315" s="60" t="s">
+        <v>5834</v>
+      </c>
+      <c r="C315" s="61" t="s">
         <v>5835</v>
-      </c>
-      <c r="C315" s="61" t="s">
-        <v>5836</v>
       </c>
       <c r="K315" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X315" s="49" t="s">
-        <v>5837</v>
+        <v>5836</v>
       </c>
     </row>
     <row r="316" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28873,16 +28871,16 @@
         <v>40</v>
       </c>
       <c r="B316" s="60" t="s">
+        <v>5837</v>
+      </c>
+      <c r="C316" s="61" t="s">
         <v>5838</v>
-      </c>
-      <c r="C316" s="61" t="s">
-        <v>5839</v>
       </c>
       <c r="K316" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X316" s="49" t="s">
-        <v>5840</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="317" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28890,16 +28888,16 @@
         <v>624</v>
       </c>
       <c r="B317" s="60" t="s">
+        <v>5840</v>
+      </c>
+      <c r="C317" s="61" t="s">
         <v>5841</v>
-      </c>
-      <c r="C317" s="61" t="s">
-        <v>5842</v>
       </c>
       <c r="K317" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X317" s="49" t="s">
-        <v>5843</v>
+        <v>5842</v>
       </c>
     </row>
     <row r="318" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28907,7 +28905,7 @@
         <v>161</v>
       </c>
       <c r="B318" s="60" t="s">
-        <v>5807</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="319" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28915,13 +28913,13 @@
         <v>39</v>
       </c>
       <c r="B319" s="60" t="s">
-        <v>5844</v>
+        <v>5843</v>
       </c>
       <c r="C319" s="61" t="s">
         <v>465</v>
       </c>
       <c r="I319" s="60" t="s">
-        <v>5845</v>
+        <v>5844</v>
       </c>
       <c r="K319" s="60" t="s">
         <v>38</v>
@@ -28935,7 +28933,7 @@
         <v>157</v>
       </c>
       <c r="B320" s="60" t="s">
-        <v>5808</v>
+        <v>5807</v>
       </c>
       <c r="C320" s="61" t="s">
         <v>5418</v>
@@ -28944,7 +28942,7 @@
         <v>384</v>
       </c>
       <c r="X320" s="62" t="s">
-        <v>6058</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="321" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28952,16 +28950,16 @@
         <v>625</v>
       </c>
       <c r="B321" s="60" t="s">
+        <v>5845</v>
+      </c>
+      <c r="C321" s="61" t="s">
         <v>5846</v>
-      </c>
-      <c r="C321" s="61" t="s">
-        <v>5847</v>
       </c>
       <c r="K321" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X321" s="49" t="s">
-        <v>5848</v>
+        <v>5847</v>
       </c>
     </row>
     <row r="322" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28969,16 +28967,16 @@
         <v>37</v>
       </c>
       <c r="B322" s="60" t="s">
+        <v>5848</v>
+      </c>
+      <c r="C322" s="61" t="s">
         <v>5849</v>
-      </c>
-      <c r="C322" s="61" t="s">
-        <v>5850</v>
       </c>
       <c r="K322" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X322" s="49" t="s">
-        <v>5851</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="323" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -28986,16 +28984,16 @@
         <v>37</v>
       </c>
       <c r="B323" s="60" t="s">
+        <v>5851</v>
+      </c>
+      <c r="C323" s="61" t="s">
         <v>5852</v>
-      </c>
-      <c r="C323" s="61" t="s">
-        <v>5853</v>
       </c>
       <c r="K323" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X323" s="49" t="s">
-        <v>5854</v>
+        <v>5853</v>
       </c>
     </row>
     <row r="324" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -29003,16 +29001,16 @@
         <v>626</v>
       </c>
       <c r="B324" s="60" t="s">
+        <v>5854</v>
+      </c>
+      <c r="C324" s="61" t="s">
         <v>5855</v>
-      </c>
-      <c r="C324" s="61" t="s">
-        <v>5856</v>
       </c>
       <c r="K324" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X324" s="49" t="s">
-        <v>5857</v>
+        <v>5856</v>
       </c>
     </row>
     <row r="325" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -29020,7 +29018,7 @@
         <v>161</v>
       </c>
       <c r="B325" s="60" t="s">
-        <v>5808</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="326" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -29028,16 +29026,16 @@
         <v>37</v>
       </c>
       <c r="B326" s="60" t="s">
+        <v>5857</v>
+      </c>
+      <c r="C326" s="61" t="s">
         <v>5858</v>
-      </c>
-      <c r="C326" s="61" t="s">
-        <v>5859</v>
       </c>
       <c r="K326" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X326" s="49" t="s">
-        <v>5860</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="327" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -29045,19 +29043,19 @@
         <v>627</v>
       </c>
       <c r="B327" s="60" t="s">
+        <v>5860</v>
+      </c>
+      <c r="C327" s="61" t="s">
         <v>5861</v>
       </c>
-      <c r="C327" s="61" t="s">
+      <c r="I327" s="60" t="s">
         <v>5862</v>
-      </c>
-      <c r="I327" s="60" t="s">
-        <v>5863</v>
       </c>
       <c r="K327" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X327" s="49" t="s">
-        <v>5864</v>
+        <v>5863</v>
       </c>
     </row>
     <row r="328" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -29065,13 +29063,13 @@
         <v>39</v>
       </c>
       <c r="B328" s="60" t="s">
-        <v>5865</v>
+        <v>5864</v>
       </c>
       <c r="C328" s="61" t="s">
         <v>628</v>
       </c>
       <c r="I328" s="60" t="s">
-        <v>5866</v>
+        <v>5865</v>
       </c>
       <c r="K328" s="60" t="s">
         <v>38</v>
@@ -29085,7 +29083,7 @@
         <v>165</v>
       </c>
       <c r="B329" s="60" t="s">
-        <v>5802</v>
+        <v>5801</v>
       </c>
     </row>
     <row r="330" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -29160,7 +29158,7 @@
         <v>5236</v>
       </c>
       <c r="X335" s="62" t="s">
-        <v>6059</v>
+        <v>6058</v>
       </c>
     </row>
     <row r="336" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -29202,7 +29200,7 @@
         <v>398</v>
       </c>
       <c r="X343" s="62" t="s">
-        <v>6060</v>
+        <v>6059</v>
       </c>
     </row>
     <row r="344" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -29216,7 +29214,7 @@
         <v>5383</v>
       </c>
       <c r="X344" s="62" t="s">
-        <v>6061</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="345" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -29464,7 +29462,7 @@
         <v>38</v>
       </c>
       <c r="X360" s="62" t="s">
-        <v>6062</v>
+        <v>6061</v>
       </c>
     </row>
     <row r="361" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -29484,7 +29482,7 @@
         <v>38</v>
       </c>
       <c r="X361" s="62" t="s">
-        <v>6063</v>
+        <v>6062</v>
       </c>
     </row>
     <row r="362" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -29643,13 +29641,13 @@
         <v>36</v>
       </c>
       <c r="B370" s="60" t="s">
-        <v>5623</v>
+        <v>5622</v>
       </c>
       <c r="C370" s="61" t="s">
         <v>468</v>
       </c>
       <c r="X370" s="49" t="s">
-        <v>6036</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="371" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -29663,7 +29661,7 @@
         <v>5250</v>
       </c>
       <c r="I371" s="60" t="s">
-        <v>5633</v>
+        <v>5632</v>
       </c>
       <c r="X371" s="49" t="s">
         <v>5340</v>
@@ -29955,7 +29953,7 @@
         <v>38</v>
       </c>
       <c r="X385" s="62" t="s">
-        <v>6064</v>
+        <v>6063</v>
       </c>
     </row>
     <row r="386" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30163,7 +30161,7 @@
         <v>5391</v>
       </c>
       <c r="X396" s="62" t="s">
-        <v>6065</v>
+        <v>6064</v>
       </c>
     </row>
     <row r="397" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30171,13 +30169,13 @@
         <v>36</v>
       </c>
       <c r="B397" s="60" t="s">
+        <v>5623</v>
+      </c>
+      <c r="C397" s="61" t="s">
         <v>5624</v>
       </c>
-      <c r="C397" s="61" t="s">
-        <v>5625</v>
-      </c>
       <c r="X397" s="62" t="s">
-        <v>6066</v>
+        <v>6065</v>
       </c>
     </row>
     <row r="398" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30194,7 +30192,7 @@
         <v>38</v>
       </c>
       <c r="X398" s="62" t="s">
-        <v>6067</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="399" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30231,7 +30229,7 @@
         <v>468</v>
       </c>
       <c r="X400" s="49" t="s">
-        <v>6069</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="401" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30247,16 +30245,16 @@
         <v>157</v>
       </c>
       <c r="B402" s="60" t="s">
-        <v>5651</v>
+        <v>5650</v>
       </c>
       <c r="C402" s="61" t="s">
-        <v>5649</v>
+        <v>5648</v>
       </c>
       <c r="I402" s="60" t="s">
         <v>5391</v>
       </c>
       <c r="X402" s="62" t="s">
-        <v>6068</v>
+        <v>6067</v>
       </c>
     </row>
     <row r="403" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30264,13 +30262,13 @@
         <v>36</v>
       </c>
       <c r="B403" s="60" t="s">
-        <v>5652</v>
+        <v>5651</v>
       </c>
       <c r="C403" s="61" t="s">
-        <v>5656</v>
+        <v>5655</v>
       </c>
       <c r="X403" s="49" t="s">
-        <v>6100</v>
+        <v>6099</v>
       </c>
     </row>
     <row r="404" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30278,16 +30276,16 @@
         <v>37</v>
       </c>
       <c r="B404" s="60" t="s">
-        <v>5653</v>
+        <v>5652</v>
       </c>
       <c r="C404" s="61" t="s">
-        <v>5657</v>
+        <v>5656</v>
       </c>
       <c r="K404" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X404" s="49" t="s">
-        <v>6101</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="405" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30295,19 +30293,19 @@
         <v>40</v>
       </c>
       <c r="B405" s="60" t="s">
-        <v>5654</v>
+        <v>5653</v>
       </c>
       <c r="C405" s="61" t="s">
+        <v>5657</v>
+      </c>
+      <c r="I405" s="60" t="s">
         <v>5658</v>
-      </c>
-      <c r="I405" s="60" t="s">
-        <v>5659</v>
       </c>
       <c r="K405" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X405" s="49" t="s">
-        <v>6102</v>
+        <v>6101</v>
       </c>
     </row>
     <row r="406" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30315,13 +30313,13 @@
         <v>36</v>
       </c>
       <c r="B406" s="60" t="s">
-        <v>5655</v>
+        <v>5654</v>
       </c>
       <c r="C406" s="61" t="s">
         <v>468</v>
       </c>
       <c r="X406" s="49" t="s">
-        <v>6103</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="407" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30329,7 +30327,7 @@
         <v>161</v>
       </c>
       <c r="B407" s="60" t="s">
-        <v>5651</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="408" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30346,7 +30344,7 @@
         <v>5391</v>
       </c>
       <c r="X408" s="62" t="s">
-        <v>6070</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="409" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30354,13 +30352,13 @@
         <v>36</v>
       </c>
       <c r="B409" s="60" t="s">
+        <v>5625</v>
+      </c>
+      <c r="C409" s="61" t="s">
         <v>5626</v>
       </c>
-      <c r="C409" s="61" t="s">
-        <v>5627</v>
-      </c>
       <c r="X409" s="62" t="s">
-        <v>6035</v>
+        <v>6034</v>
       </c>
     </row>
     <row r="410" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30476,7 +30474,7 @@
         <v>38</v>
       </c>
       <c r="X416" s="49" t="s">
-        <v>5713</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="417" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30493,7 +30491,7 @@
         <v>38</v>
       </c>
       <c r="X417" s="62" t="s">
-        <v>6071</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="418" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30677,7 +30675,7 @@
         <v>384</v>
       </c>
       <c r="X428" s="62" t="s">
-        <v>6072</v>
+        <v>6071</v>
       </c>
     </row>
     <row r="429" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30824,18 +30822,18 @@
         <v>4764</v>
       </c>
       <c r="X437" s="49" t="s">
-        <v>5673</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="438" spans="1:24" ht="18.600000000000001" customHeight="1">
       <c r="A438" s="60" t="s">
-        <v>5674</v>
+        <v>5673</v>
       </c>
       <c r="B438" s="60" t="s">
         <v>902</v>
       </c>
       <c r="C438" s="61" t="s">
-        <v>5685</v>
+        <v>5684</v>
       </c>
       <c r="F438" s="60" t="s">
         <v>4764</v>
@@ -30844,7 +30842,7 @@
         <v>38</v>
       </c>
       <c r="X438" s="49" t="s">
-        <v>5686</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="439" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30867,7 +30865,7 @@
         <v>38</v>
       </c>
       <c r="X439" s="49" t="s">
-        <v>5675</v>
+        <v>5674</v>
       </c>
     </row>
     <row r="440" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30875,16 +30873,16 @@
         <v>162</v>
       </c>
       <c r="B440" s="60" t="s">
+        <v>5928</v>
+      </c>
+      <c r="C440" s="61" t="s">
         <v>5929</v>
-      </c>
-      <c r="C440" s="61" t="s">
-        <v>5930</v>
       </c>
       <c r="O440" s="60">
         <v>9</v>
       </c>
       <c r="X440" s="49" t="s">
-        <v>5931</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="441" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30892,7 +30890,7 @@
         <v>147</v>
       </c>
       <c r="B441" s="60" t="s">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="N441" s="60" t="s">
         <v>310</v>
@@ -30903,10 +30901,10 @@
         <v>147</v>
       </c>
       <c r="B442" s="60" t="s">
+        <v>5932</v>
+      </c>
+      <c r="N442" s="60" t="s">
         <v>5933</v>
-      </c>
-      <c r="N442" s="60" t="s">
-        <v>5934</v>
       </c>
     </row>
     <row r="443" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30914,16 +30912,16 @@
         <v>157</v>
       </c>
       <c r="B443" s="60" t="s">
+        <v>5934</v>
+      </c>
+      <c r="C443" s="61" t="s">
         <v>5935</v>
       </c>
-      <c r="C443" s="61" t="s">
+      <c r="I443" s="60" t="s">
         <v>5936</v>
       </c>
-      <c r="I443" s="60" t="s">
-        <v>5937</v>
-      </c>
       <c r="X443" s="49" t="s">
-        <v>5936</v>
+        <v>5935</v>
       </c>
     </row>
     <row r="444" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30934,19 +30932,19 @@
         <v>905</v>
       </c>
       <c r="C444" s="61" t="s">
-        <v>5938</v>
+        <v>5937</v>
       </c>
       <c r="F444" s="60" t="s">
         <v>398</v>
       </c>
       <c r="I444" s="60" t="s">
-        <v>5939</v>
+        <v>5938</v>
       </c>
       <c r="K444" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X444" s="49" t="s">
-        <v>5940</v>
+        <v>5939</v>
       </c>
     </row>
     <row r="445" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30954,19 +30952,19 @@
         <v>162</v>
       </c>
       <c r="B445" s="60" t="s">
-        <v>5902</v>
+        <v>5901</v>
       </c>
       <c r="C445" s="61" t="s">
-        <v>5941</v>
+        <v>5940</v>
       </c>
       <c r="I445" s="60" t="s">
-        <v>5939</v>
+        <v>5938</v>
       </c>
       <c r="K445" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X445" s="49" t="s">
-        <v>5942</v>
+        <v>5941</v>
       </c>
     </row>
     <row r="446" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -30974,7 +30972,7 @@
         <v>147</v>
       </c>
       <c r="B446" s="60" t="s">
-        <v>5943</v>
+        <v>5942</v>
       </c>
       <c r="N446" s="60" t="s">
         <v>310</v>
@@ -30985,10 +30983,10 @@
         <v>39</v>
       </c>
       <c r="B447" s="60" t="s">
-        <v>5870</v>
+        <v>5869</v>
       </c>
       <c r="C447" s="61" t="s">
-        <v>5903</v>
+        <v>5902</v>
       </c>
       <c r="F447" s="60" t="s">
         <v>4764</v>
@@ -30997,7 +30995,7 @@
         <v>38</v>
       </c>
       <c r="X447" s="49" t="s">
-        <v>5904</v>
+        <v>5903</v>
       </c>
     </row>
     <row r="448" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31008,7 +31006,7 @@
         <v>906</v>
       </c>
       <c r="C448" s="61" t="s">
-        <v>5905</v>
+        <v>5904</v>
       </c>
       <c r="F448" s="60" t="s">
         <v>398</v>
@@ -31017,7 +31015,7 @@
         <v>38</v>
       </c>
       <c r="X448" s="49" t="s">
-        <v>5906</v>
+        <v>5905</v>
       </c>
     </row>
     <row r="449" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31025,10 +31023,10 @@
         <v>907</v>
       </c>
       <c r="B449" s="60" t="s">
-        <v>5888</v>
+        <v>5887</v>
       </c>
       <c r="C449" s="61" t="s">
-        <v>5907</v>
+        <v>5906</v>
       </c>
       <c r="F449" s="60" t="s">
         <v>4764</v>
@@ -31037,7 +31035,7 @@
         <v>38</v>
       </c>
       <c r="X449" s="49" t="s">
-        <v>5908</v>
+        <v>5907</v>
       </c>
     </row>
     <row r="450" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31045,19 +31043,19 @@
         <v>908</v>
       </c>
       <c r="B450" s="60" t="s">
-        <v>5871</v>
+        <v>5870</v>
       </c>
       <c r="C450" s="61" t="s">
-        <v>5909</v>
+        <v>5908</v>
       </c>
       <c r="I450" s="60" t="s">
-        <v>5899</v>
+        <v>5898</v>
       </c>
       <c r="K450" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X450" s="49" t="s">
-        <v>5910</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="451" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31065,7 +31063,7 @@
         <v>39</v>
       </c>
       <c r="B451" s="60" t="s">
-        <v>5872</v>
+        <v>5871</v>
       </c>
       <c r="C451" s="61" t="s">
         <v>465</v>
@@ -31074,13 +31072,13 @@
         <v>4764</v>
       </c>
       <c r="I451" s="60" t="s">
-        <v>5886</v>
+        <v>5885</v>
       </c>
       <c r="K451" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X451" s="49" t="s">
-        <v>5676</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="452" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31088,22 +31086,22 @@
         <v>1183</v>
       </c>
       <c r="B452" s="60" t="s">
-        <v>5873</v>
+        <v>5872</v>
       </c>
       <c r="C452" s="61" t="s">
-        <v>5911</v>
+        <v>5910</v>
       </c>
       <c r="F452" s="60" t="s">
         <v>4764</v>
       </c>
       <c r="I452" s="60" t="s">
-        <v>5899</v>
+        <v>5898</v>
       </c>
       <c r="K452" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X452" s="49" t="s">
-        <v>5912</v>
+        <v>5911</v>
       </c>
     </row>
     <row r="453" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31111,7 +31109,7 @@
         <v>39</v>
       </c>
       <c r="B453" s="60" t="s">
-        <v>5874</v>
+        <v>5873</v>
       </c>
       <c r="C453" s="61" t="s">
         <v>465</v>
@@ -31120,13 +31118,13 @@
         <v>4764</v>
       </c>
       <c r="I453" s="60" t="s">
-        <v>5887</v>
+        <v>5886</v>
       </c>
       <c r="K453" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X453" s="49" t="s">
-        <v>5677</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="454" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31134,19 +31132,19 @@
         <v>157</v>
       </c>
       <c r="B454" s="60" t="s">
-        <v>5684</v>
+        <v>5683</v>
       </c>
       <c r="C454" s="61" t="s">
-        <v>5678</v>
+        <v>5677</v>
       </c>
       <c r="F454" s="60" t="s">
         <v>384</v>
       </c>
       <c r="I454" s="60" t="s">
-        <v>5899</v>
+        <v>5898</v>
       </c>
       <c r="X454" s="49" t="s">
-        <v>5678</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="455" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31154,16 +31152,16 @@
         <v>443</v>
       </c>
       <c r="B455" s="60" t="s">
-        <v>5875</v>
+        <v>5874</v>
       </c>
       <c r="C455" s="61" t="s">
-        <v>5913</v>
+        <v>5912</v>
       </c>
       <c r="K455" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X455" s="49" t="s">
-        <v>5914</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="456" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31171,16 +31169,16 @@
         <v>618</v>
       </c>
       <c r="B456" s="60" t="s">
-        <v>5876</v>
+        <v>5875</v>
       </c>
       <c r="C456" s="61" t="s">
-        <v>5915</v>
+        <v>5914</v>
       </c>
       <c r="K456" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X456" s="49" t="s">
-        <v>5916</v>
+        <v>5915</v>
       </c>
     </row>
     <row r="457" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31188,16 +31186,16 @@
         <v>620</v>
       </c>
       <c r="B457" s="60" t="s">
-        <v>5877</v>
+        <v>5876</v>
       </c>
       <c r="C457" s="61" t="s">
-        <v>5917</v>
+        <v>5916</v>
       </c>
       <c r="K457" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X457" s="49" t="s">
-        <v>5918</v>
+        <v>5917</v>
       </c>
     </row>
     <row r="458" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31205,16 +31203,16 @@
         <v>622</v>
       </c>
       <c r="B458" s="60" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="C458" s="61" t="s">
-        <v>5919</v>
+        <v>5918</v>
       </c>
       <c r="K458" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X458" s="49" t="s">
-        <v>5920</v>
+        <v>5919</v>
       </c>
     </row>
     <row r="459" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31222,16 +31220,16 @@
         <v>623</v>
       </c>
       <c r="B459" s="60" t="s">
-        <v>5879</v>
+        <v>5878</v>
       </c>
       <c r="C459" s="61" t="s">
-        <v>5921</v>
+        <v>5920</v>
       </c>
       <c r="K459" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X459" s="49" t="s">
-        <v>5922</v>
+        <v>5921</v>
       </c>
     </row>
     <row r="460" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31239,22 +31237,22 @@
         <v>40</v>
       </c>
       <c r="B460" s="60" t="s">
-        <v>5880</v>
+        <v>5879</v>
       </c>
       <c r="C460" s="61" t="s">
-        <v>5890</v>
+        <v>5889</v>
       </c>
       <c r="F460" s="60" t="s">
         <v>4764</v>
       </c>
       <c r="H460" s="60" t="s">
-        <v>5679</v>
+        <v>5678</v>
       </c>
       <c r="K460" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X460" s="49" t="s">
-        <v>5891</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="461" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31262,16 +31260,16 @@
         <v>624</v>
       </c>
       <c r="B461" s="60" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
       <c r="C461" s="61" t="s">
-        <v>5892</v>
+        <v>5891</v>
       </c>
       <c r="K461" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X461" s="49" t="s">
-        <v>5893</v>
+        <v>5892</v>
       </c>
     </row>
     <row r="462" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31279,16 +31277,16 @@
         <v>625</v>
       </c>
       <c r="B462" s="60" t="s">
-        <v>5889</v>
+        <v>5888</v>
       </c>
       <c r="C462" s="61" t="s">
-        <v>5894</v>
+        <v>5893</v>
       </c>
       <c r="K462" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X462" s="49" t="s">
-        <v>5895</v>
+        <v>5894</v>
       </c>
     </row>
     <row r="463" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31296,7 +31294,7 @@
         <v>161</v>
       </c>
       <c r="B463" s="60" t="s">
-        <v>5684</v>
+        <v>5683</v>
       </c>
       <c r="F463" s="60" t="s">
         <v>4764</v>
@@ -31307,7 +31305,7 @@
         <v>39</v>
       </c>
       <c r="B464" s="60" t="s">
-        <v>5882</v>
+        <v>5881</v>
       </c>
       <c r="C464" s="61" t="s">
         <v>465</v>
@@ -31316,13 +31314,13 @@
         <v>4764</v>
       </c>
       <c r="I464" s="60" t="s">
-        <v>5900</v>
+        <v>5899</v>
       </c>
       <c r="K464" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X464" s="49" t="s">
-        <v>5680</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="465" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31330,19 +31328,19 @@
         <v>37</v>
       </c>
       <c r="B465" s="60" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
       <c r="C465" s="61" t="s">
-        <v>5896</v>
+        <v>5895</v>
       </c>
       <c r="I465" s="60" t="s">
-        <v>5899</v>
+        <v>5898</v>
       </c>
       <c r="K465" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X465" s="49" t="s">
-        <v>5681</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="466" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31350,19 +31348,19 @@
         <v>37</v>
       </c>
       <c r="B466" s="60" t="s">
-        <v>5884</v>
+        <v>5883</v>
       </c>
       <c r="C466" s="61" t="s">
-        <v>5897</v>
+        <v>5896</v>
       </c>
       <c r="I466" s="60" t="s">
-        <v>5899</v>
+        <v>5898</v>
       </c>
       <c r="K466" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X466" s="49" t="s">
-        <v>5682</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="467" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31370,19 +31368,19 @@
         <v>626</v>
       </c>
       <c r="B467" s="60" t="s">
-        <v>5885</v>
+        <v>5884</v>
       </c>
       <c r="C467" s="61" t="s">
+        <v>5897</v>
+      </c>
+      <c r="I467" s="60" t="s">
         <v>5898</v>
-      </c>
-      <c r="I467" s="60" t="s">
-        <v>5899</v>
       </c>
       <c r="K467" s="60" t="s">
         <v>38</v>
       </c>
       <c r="X467" s="49" t="s">
-        <v>5683</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="468" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31401,7 +31399,7 @@
         <v>165</v>
       </c>
       <c r="B469" s="60" t="s">
-        <v>5902</v>
+        <v>5901</v>
       </c>
     </row>
     <row r="470" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31409,7 +31407,7 @@
         <v>161</v>
       </c>
       <c r="B470" s="60" t="s">
-        <v>5935</v>
+        <v>5934</v>
       </c>
     </row>
     <row r="471" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31417,7 +31415,7 @@
         <v>165</v>
       </c>
       <c r="B471" s="60" t="s">
-        <v>5929</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="472" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31459,7 +31457,7 @@
         <v>38</v>
       </c>
       <c r="X474" s="49" t="s">
-        <v>5687</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="475" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31482,7 +31480,7 @@
         <v>38</v>
       </c>
       <c r="X475" s="49" t="s">
-        <v>5688</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="476" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31530,7 +31528,7 @@
         <v>38</v>
       </c>
       <c r="X478" s="49" t="s">
-        <v>5689</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="479" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31547,7 +31545,7 @@
         <v>38</v>
       </c>
       <c r="X479" s="49" t="s">
-        <v>5690</v>
+        <v>5689</v>
       </c>
     </row>
     <row r="480" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31584,7 +31582,7 @@
         <v>38</v>
       </c>
       <c r="X481" s="49" t="s">
-        <v>5691</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="482" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31601,7 +31599,7 @@
         <v>38</v>
       </c>
       <c r="X482" s="49" t="s">
-        <v>5692</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="483" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31618,7 +31616,7 @@
         <v>38</v>
       </c>
       <c r="X483" s="49" t="s">
-        <v>5693</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="484" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31638,7 +31636,7 @@
         <v>38</v>
       </c>
       <c r="X484" s="49" t="s">
-        <v>5694</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="485" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31655,7 +31653,7 @@
         <v>38</v>
       </c>
       <c r="X485" s="49" t="s">
-        <v>5695</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="486" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31672,7 +31670,7 @@
         <v>38</v>
       </c>
       <c r="X486" s="49" t="s">
-        <v>5696</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="487" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31689,7 +31687,7 @@
         <v>38</v>
       </c>
       <c r="X487" s="49" t="s">
-        <v>5697</v>
+        <v>5696</v>
       </c>
     </row>
     <row r="488" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31706,7 +31704,7 @@
         <v>38</v>
       </c>
       <c r="X488" s="49" t="s">
-        <v>5698</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="489" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31723,7 +31721,7 @@
         <v>38</v>
       </c>
       <c r="X489" s="49" t="s">
-        <v>5699</v>
+        <v>5698</v>
       </c>
     </row>
     <row r="490" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31792,7 +31790,7 @@
         <v>384</v>
       </c>
       <c r="X495" s="49" t="s">
-        <v>5700</v>
+        <v>5699</v>
       </c>
     </row>
     <row r="496" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31826,7 +31824,7 @@
         <v>38</v>
       </c>
       <c r="X497" s="49" t="s">
-        <v>5702</v>
+        <v>5701</v>
       </c>
     </row>
     <row r="498" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31877,7 +31875,7 @@
         <v>38</v>
       </c>
       <c r="X500" s="49" t="s">
-        <v>5703</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="501" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31894,7 +31892,7 @@
         <v>38</v>
       </c>
       <c r="X501" s="49" t="s">
-        <v>5704</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="502" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31939,7 +31937,7 @@
         <v>384</v>
       </c>
       <c r="X504" s="49" t="s">
-        <v>5701</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="505" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31956,7 +31954,7 @@
         <v>38</v>
       </c>
       <c r="X505" s="49" t="s">
-        <v>5705</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="506" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31973,7 +31971,7 @@
         <v>38</v>
       </c>
       <c r="X506" s="49" t="s">
-        <v>5706</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="507" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -31990,7 +31988,7 @@
         <v>38</v>
       </c>
       <c r="X507" s="49" t="s">
-        <v>5707</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="508" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -32010,7 +32008,7 @@
         <v>38</v>
       </c>
       <c r="X508" s="49" t="s">
-        <v>5708</v>
+        <v>5707</v>
       </c>
     </row>
     <row r="509" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -32030,7 +32028,7 @@
         <v>38</v>
       </c>
       <c r="X509" s="49" t="s">
-        <v>5709</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="510" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -32050,7 +32048,7 @@
         <v>38</v>
       </c>
       <c r="X510" s="62" t="s">
-        <v>6073</v>
+        <v>6072</v>
       </c>
     </row>
     <row r="511" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -32070,7 +32068,7 @@
         <v>38</v>
       </c>
       <c r="X511" s="49" t="s">
-        <v>5710</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="512" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -32098,7 +32096,7 @@
         <v>38</v>
       </c>
       <c r="X513" s="49" t="s">
-        <v>5711</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="514" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -32118,7 +32116,7 @@
         <v>38</v>
       </c>
       <c r="X514" s="49" t="s">
-        <v>5712</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="515" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -32525,13 +32523,13 @@
         <v>36</v>
       </c>
       <c r="B539" s="60" t="s">
+        <v>5627</v>
+      </c>
+      <c r="C539" s="61" t="s">
         <v>5628</v>
       </c>
-      <c r="C539" s="61" t="s">
-        <v>5629</v>
-      </c>
       <c r="I539" s="60" t="s">
-        <v>5634</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="540" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -32545,7 +32543,7 @@
         <v>982</v>
       </c>
       <c r="I540" s="60" t="s">
-        <v>5634</v>
+        <v>5633</v>
       </c>
       <c r="X540" s="49" t="s">
         <v>3852</v>
@@ -33114,13 +33112,13 @@
         <v>36</v>
       </c>
       <c r="B574" s="60" t="s">
-        <v>5630</v>
+        <v>5629</v>
       </c>
       <c r="C574" s="61" t="s">
         <v>468</v>
       </c>
       <c r="X574" s="49" t="s">
-        <v>6036</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="575" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -33136,16 +33134,16 @@
         <v>36</v>
       </c>
       <c r="B576" s="60" t="s">
-        <v>5631</v>
+        <v>5630</v>
       </c>
       <c r="C576" s="61" t="s">
-        <v>5666</v>
+        <v>5665</v>
       </c>
       <c r="I576" s="60" t="s">
         <v>5391</v>
       </c>
       <c r="X576" s="62" t="s">
-        <v>6074</v>
+        <v>6073</v>
       </c>
     </row>
     <row r="577" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -35464,7 +35462,7 @@
         <v>384</v>
       </c>
       <c r="X726" s="62" t="s">
-        <v>6075</v>
+        <v>6074</v>
       </c>
     </row>
     <row r="727" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -37401,10 +37399,10 @@
         <v>36</v>
       </c>
       <c r="B850" s="60" t="s">
+        <v>5666</v>
+      </c>
+      <c r="C850" s="61" t="s">
         <v>5667</v>
-      </c>
-      <c r="C850" s="61" t="s">
-        <v>5668</v>
       </c>
       <c r="I850" s="60" t="s">
         <v>3809</v>
@@ -37469,7 +37467,7 @@
         <v>5403</v>
       </c>
       <c r="X854" s="62" t="s">
-        <v>6076</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="855" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -37717,13 +37715,13 @@
         <v>36</v>
       </c>
       <c r="B870" s="60" t="s">
-        <v>5635</v>
+        <v>5634</v>
       </c>
       <c r="C870" s="61" t="s">
         <v>468</v>
       </c>
       <c r="X870" s="49" t="s">
-        <v>6036</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="871" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -38880,7 +38878,7 @@
         <v>38</v>
       </c>
       <c r="S949" s="60" t="s">
-        <v>5926</v>
+        <v>5925</v>
       </c>
       <c r="X949" s="49" t="s">
         <v>3927</v>
@@ -38897,7 +38895,7 @@
         <v>1488</v>
       </c>
       <c r="I950" s="60" t="s">
-        <v>5714</v>
+        <v>5713</v>
       </c>
       <c r="X950" s="49" t="s">
         <v>3502</v>
@@ -39471,7 +39469,7 @@
         <v>38</v>
       </c>
       <c r="S988" s="60" t="s">
-        <v>5926</v>
+        <v>5925</v>
       </c>
       <c r="X988" s="49" t="s">
         <v>3520</v>
@@ -39488,7 +39486,7 @@
         <v>1547</v>
       </c>
       <c r="I989" s="60" t="s">
-        <v>5715</v>
+        <v>5714</v>
       </c>
       <c r="X989" s="49" t="s">
         <v>3521</v>
@@ -39618,7 +39616,7 @@
         <v>1566</v>
       </c>
       <c r="I1000" s="60" t="s">
-        <v>5715</v>
+        <v>5714</v>
       </c>
       <c r="O1000" s="60" t="s">
         <v>1567</v>
@@ -40065,7 +40063,7 @@
         <v>38</v>
       </c>
       <c r="S1027" s="60" t="s">
-        <v>5926</v>
+        <v>5925</v>
       </c>
       <c r="X1027" s="49" t="s">
         <v>3539</v>
@@ -40082,7 +40080,7 @@
         <v>1611</v>
       </c>
       <c r="I1028" s="60" t="s">
-        <v>5716</v>
+        <v>5715</v>
       </c>
       <c r="X1028" s="49" t="s">
         <v>3540</v>
@@ -40212,7 +40210,7 @@
         <v>1630</v>
       </c>
       <c r="I1039" s="60" t="s">
-        <v>5716</v>
+        <v>5715</v>
       </c>
       <c r="O1039" s="60" t="s">
         <v>1631</v>
@@ -40653,7 +40651,7 @@
         <v>38</v>
       </c>
       <c r="S1066" s="60" t="s">
-        <v>5926</v>
+        <v>5925</v>
       </c>
       <c r="X1066" s="49" t="s">
         <v>3558</v>
@@ -40670,7 +40668,7 @@
         <v>1676</v>
       </c>
       <c r="I1067" s="60" t="s">
-        <v>5717</v>
+        <v>5716</v>
       </c>
       <c r="X1067" s="49" t="s">
         <v>3559</v>
@@ -40800,7 +40798,7 @@
         <v>1695</v>
       </c>
       <c r="I1078" s="60" t="s">
-        <v>5717</v>
+        <v>5716</v>
       </c>
       <c r="O1078" s="60" t="s">
         <v>1696</v>
@@ -41241,7 +41239,7 @@
         <v>38</v>
       </c>
       <c r="S1105" s="60" t="s">
-        <v>5926</v>
+        <v>5925</v>
       </c>
       <c r="X1105" s="49" t="s">
         <v>3577</v>
@@ -41258,7 +41256,7 @@
         <v>1741</v>
       </c>
       <c r="I1106" s="60" t="s">
-        <v>5718</v>
+        <v>5717</v>
       </c>
       <c r="X1106" s="49" t="s">
         <v>3578</v>
@@ -41385,7 +41383,7 @@
         <v>1760</v>
       </c>
       <c r="I1117" s="60" t="s">
-        <v>5718</v>
+        <v>5717</v>
       </c>
       <c r="O1117" s="60" t="s">
         <v>1761</v>
@@ -41848,7 +41846,7 @@
         <v>38</v>
       </c>
       <c r="S1146" s="60" t="s">
-        <v>5926</v>
+        <v>5925</v>
       </c>
       <c r="X1146" s="49" t="s">
         <v>3597</v>
@@ -41865,7 +41863,7 @@
         <v>1807</v>
       </c>
       <c r="I1147" s="60" t="s">
-        <v>5719</v>
+        <v>5718</v>
       </c>
       <c r="X1147" s="49" t="s">
         <v>3598</v>
@@ -41995,7 +41993,7 @@
         <v>1826</v>
       </c>
       <c r="I1158" s="60" t="s">
-        <v>5719</v>
+        <v>5718</v>
       </c>
       <c r="O1158" s="60" t="s">
         <v>1827</v>
@@ -42433,7 +42431,7 @@
         <v>38</v>
       </c>
       <c r="S1185" s="60" t="s">
-        <v>5926</v>
+        <v>5925</v>
       </c>
       <c r="X1185" s="49" t="s">
         <v>3616</v>
@@ -42450,7 +42448,7 @@
         <v>1872</v>
       </c>
       <c r="I1186" s="60" t="s">
-        <v>5720</v>
+        <v>5719</v>
       </c>
       <c r="X1186" s="49" t="s">
         <v>3617</v>
@@ -42580,7 +42578,7 @@
         <v>1891</v>
       </c>
       <c r="I1197" s="60" t="s">
-        <v>5720</v>
+        <v>5719</v>
       </c>
       <c r="O1197" s="60" t="s">
         <v>1892</v>
@@ -43018,7 +43016,7 @@
         <v>38</v>
       </c>
       <c r="S1224" s="60" t="s">
-        <v>5926</v>
+        <v>5925</v>
       </c>
       <c r="X1224" s="49" t="s">
         <v>3635</v>
@@ -43035,7 +43033,7 @@
         <v>1937</v>
       </c>
       <c r="I1225" s="60" t="s">
-        <v>5721</v>
+        <v>5720</v>
       </c>
       <c r="X1225" s="49" t="s">
         <v>3636</v>
@@ -43165,7 +43163,7 @@
         <v>1956</v>
       </c>
       <c r="I1236" s="60" t="s">
-        <v>5721</v>
+        <v>5720</v>
       </c>
       <c r="O1236" s="60" t="s">
         <v>1957</v>
@@ -43953,7 +43951,7 @@
         <v>5424</v>
       </c>
       <c r="I1288" s="60" t="s">
-        <v>5636</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="1289" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -43967,7 +43965,7 @@
         <v>2039</v>
       </c>
       <c r="P1289" s="60" t="s">
-        <v>5671</v>
+        <v>5670</v>
       </c>
       <c r="X1289" s="49" t="s">
         <v>3669</v>
@@ -44001,7 +43999,7 @@
         <v>5058</v>
       </c>
       <c r="X1291" s="62" t="s">
-        <v>6085</v>
+        <v>6084</v>
       </c>
     </row>
     <row r="1292" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -44015,7 +44013,7 @@
         <v>5045</v>
       </c>
       <c r="X1292" s="62" t="s">
-        <v>6086</v>
+        <v>6085</v>
       </c>
     </row>
     <row r="1293" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -44205,7 +44203,7 @@
         <v>5055</v>
       </c>
       <c r="X1306" s="62" t="s">
-        <v>6087</v>
+        <v>6086</v>
       </c>
     </row>
     <row r="1307" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -44398,7 +44396,7 @@
         <v>384</v>
       </c>
       <c r="X1320" s="62" t="s">
-        <v>6088</v>
+        <v>6087</v>
       </c>
     </row>
     <row r="1321" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -44695,7 +44693,7 @@
         <v>384</v>
       </c>
       <c r="X1338" s="62" t="s">
-        <v>6089</v>
+        <v>6088</v>
       </c>
     </row>
     <row r="1339" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -44958,7 +44956,7 @@
         <v>384</v>
       </c>
       <c r="X1354" s="62" t="s">
-        <v>6090</v>
+        <v>6089</v>
       </c>
     </row>
     <row r="1355" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -45226,7 +45224,7 @@
         <v>38</v>
       </c>
       <c r="P1371" s="60" t="s">
-        <v>5669</v>
+        <v>5668</v>
       </c>
       <c r="X1371" s="49" t="s">
         <v>3715</v>
@@ -45246,7 +45244,7 @@
         <v>38</v>
       </c>
       <c r="P1372" s="60" t="s">
-        <v>5669</v>
+        <v>5668</v>
       </c>
       <c r="X1372" s="49" t="s">
         <v>3716</v>
@@ -45266,7 +45264,7 @@
         <v>38</v>
       </c>
       <c r="P1373" s="60" t="s">
-        <v>5669</v>
+        <v>5668</v>
       </c>
       <c r="X1373" s="49" t="s">
         <v>3717</v>
@@ -45286,7 +45284,7 @@
         <v>38</v>
       </c>
       <c r="P1374" s="60" t="s">
-        <v>5670</v>
+        <v>5669</v>
       </c>
       <c r="X1374" s="49" t="s">
         <v>3718</v>
@@ -45579,7 +45577,7 @@
         <v>5056</v>
       </c>
       <c r="X1393" s="62" t="s">
-        <v>6091</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="1394" spans="1:24" ht="18.600000000000001" customHeight="1">
@@ -47666,7 +47664,7 @@
       <c r="E74" s="54"/>
       <c r="F74" s="54"/>
       <c r="P74" t="s">
-        <v>5954</v>
+        <v>5953</v>
       </c>
     </row>
     <row r="75" spans="1:16" s="55" customFormat="1">
@@ -47683,7 +47681,7 @@
       <c r="E75" s="54"/>
       <c r="F75" s="54"/>
       <c r="P75" t="s">
-        <v>5957</v>
+        <v>5956</v>
       </c>
     </row>
     <row r="76" spans="1:16" s="55" customFormat="1">
@@ -47700,7 +47698,7 @@
       <c r="E76" s="54"/>
       <c r="F76" s="54"/>
       <c r="P76" t="s">
-        <v>5956</v>
+        <v>5955</v>
       </c>
     </row>
     <row r="77" spans="1:16" s="55" customFormat="1">
@@ -47717,7 +47715,7 @@
       <c r="E77" s="54"/>
       <c r="F77" s="54"/>
       <c r="P77" t="s">
-        <v>5955</v>
+        <v>5954</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="55" customFormat="1">
@@ -47734,7 +47732,7 @@
       <c r="E78" s="54"/>
       <c r="F78" s="54"/>
       <c r="P78" t="s">
-        <v>5958</v>
+        <v>5957</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -48176,7 +48174,7 @@
       <c r="E104" s="54"/>
       <c r="F104" s="54"/>
       <c r="P104" s="55" t="s">
-        <v>5959</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -48357,13 +48355,13 @@
         <v>7</v>
       </c>
       <c r="C115" s="54" t="s">
-        <v>5960</v>
+        <v>5959</v>
       </c>
       <c r="D115" s="54"/>
       <c r="E115" s="54"/>
       <c r="F115" s="54"/>
       <c r="P115" s="54" t="s">
-        <v>5960</v>
+        <v>5959</v>
       </c>
     </row>
     <row r="116" spans="1:16" s="55" customFormat="1">
@@ -48374,13 +48372,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="54" t="s">
-        <v>5961</v>
+        <v>5960</v>
       </c>
       <c r="D116" s="54"/>
       <c r="E116" s="54"/>
       <c r="F116" s="54"/>
       <c r="P116" s="54" t="s">
-        <v>5961</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="117" spans="1:16" s="55" customFormat="1">
@@ -48391,13 +48389,13 @@
         <v>9</v>
       </c>
       <c r="C117" s="54" t="s">
-        <v>5962</v>
+        <v>5961</v>
       </c>
       <c r="D117" s="54"/>
       <c r="E117" s="54"/>
       <c r="F117" s="54"/>
       <c r="P117" s="54" t="s">
-        <v>5962</v>
+        <v>5961</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="55" customFormat="1">
@@ -48408,13 +48406,13 @@
         <v>10</v>
       </c>
       <c r="C118" s="54" t="s">
-        <v>5963</v>
+        <v>5962</v>
       </c>
       <c r="D118" s="54"/>
       <c r="E118" s="54"/>
       <c r="F118" s="54"/>
       <c r="P118" s="54" t="s">
-        <v>5963</v>
+        <v>5962</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -50399,7 +50397,7 @@
       <c r="E233" s="48"/>
       <c r="F233" s="48"/>
       <c r="P233" s="50" t="s">
-        <v>5947</v>
+        <v>5946</v>
       </c>
     </row>
     <row r="234" spans="1:16" ht="19.2">
@@ -50416,7 +50414,7 @@
       <c r="E234" s="48"/>
       <c r="F234" s="48"/>
       <c r="P234" s="52" t="s">
-        <v>5948</v>
+        <v>5947</v>
       </c>
     </row>
     <row r="235" spans="1:16" ht="19.2">
@@ -50433,7 +50431,7 @@
       <c r="E235" s="48"/>
       <c r="F235" s="48"/>
       <c r="P235" s="51" t="s">
-        <v>5949</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="236" spans="1:16" ht="19.2">
@@ -50450,7 +50448,7 @@
       <c r="E236" s="48"/>
       <c r="F236" s="48"/>
       <c r="P236" s="52" t="s">
-        <v>5950</v>
+        <v>5949</v>
       </c>
     </row>
     <row r="237" spans="1:16" ht="19.2">
@@ -50467,7 +50465,7 @@
       <c r="E237" s="48"/>
       <c r="F237" s="48"/>
       <c r="P237" s="51" t="s">
-        <v>5951</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="238" spans="1:16" ht="19.2">
@@ -50484,7 +50482,7 @@
       <c r="E238" s="48"/>
       <c r="F238" s="48"/>
       <c r="P238" s="52" t="s">
-        <v>5952</v>
+        <v>5951</v>
       </c>
     </row>
     <row r="239" spans="1:16" ht="19.2">
@@ -50501,7 +50499,7 @@
       <c r="E239" s="48"/>
       <c r="F239" s="48"/>
       <c r="P239" s="53" t="s">
-        <v>5953</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="240" spans="1:16">
@@ -63982,7 +63980,7 @@
         <v>5039</v>
       </c>
       <c r="P1043" s="55" t="s">
-        <v>5964</v>
+        <v>5963</v>
       </c>
     </row>
     <row r="1044" spans="1:16">
@@ -63996,7 +63994,7 @@
         <v>5040</v>
       </c>
       <c r="P1044" s="55" t="s">
-        <v>5965</v>
+        <v>5964</v>
       </c>
     </row>
     <row r="1045" spans="1:16">
@@ -64010,7 +64008,7 @@
         <v>5041</v>
       </c>
       <c r="P1045" s="55" t="s">
-        <v>5966</v>
+        <v>5965</v>
       </c>
     </row>
     <row r="1046" spans="1:16">
@@ -64024,7 +64022,7 @@
         <v>5042</v>
       </c>
       <c r="P1046" s="55" t="s">
-        <v>5967</v>
+        <v>5966</v>
       </c>
     </row>
     <row r="1047" spans="1:16">
@@ -64038,7 +64036,7 @@
         <v>5043</v>
       </c>
       <c r="P1047" s="55" t="s">
-        <v>5968</v>
+        <v>5967</v>
       </c>
     </row>
     <row r="1048" spans="1:16">
@@ -71770,10 +71768,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
+        <v>6103</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6104</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6105</v>
       </c>
       <c r="C2" s="5">
         <v>10</v>
@@ -75988,330 +75986,330 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>5969</v>
+        <v>5968</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>5970</v>
+        <v>5969</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>5971</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>5972</v>
+        <v>5971</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>5973</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>5974</v>
+        <v>5973</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>5975</v>
+        <v>5974</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>5976</v>
+        <v>5975</v>
       </c>
       <c r="Q8" t="s">
-        <v>6002</v>
+        <v>6001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>5977</v>
+        <v>5976</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>5978</v>
+        <v>5977</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>5979</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>5980</v>
+        <v>5979</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>5981</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>5982</v>
+        <v>5981</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>5983</v>
+        <v>5982</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>5984</v>
+        <v>5983</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>5985</v>
+        <v>5984</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>5986</v>
+        <v>5985</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>5987</v>
+        <v>5986</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>5988</v>
+        <v>5987</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>5989</v>
+        <v>5988</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>5990</v>
+        <v>5989</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>5991</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>5992</v>
+        <v>5991</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>5993</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>5994</v>
+        <v>5993</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>5995</v>
+        <v>5994</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>5996</v>
+        <v>5995</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>5997</v>
+        <v>5996</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>5998</v>
+        <v>5997</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>5999</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>6000</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>6001</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>6003</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>6004</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>6005</v>
+        <v>6004</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>6006</v>
+        <v>6005</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>6007</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>6008</v>
+        <v>6007</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>6009</v>
+        <v>6008</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>6010</v>
+        <v>6009</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>6011</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>6012</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>6013</v>
+        <v>6012</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>6014</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>6015</v>
+        <v>6014</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>6016</v>
+        <v>6015</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>6017</v>
+        <v>6016</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>6018</v>
+        <v>6017</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>6019</v>
+        <v>6018</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>6020</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>6021</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>6022</v>
+        <v>6021</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>6023</v>
+        <v>6022</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>6024</v>
+        <v>6023</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>6025</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>6026</v>
+        <v>6025</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>6027</v>
+        <v>6026</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>6078</v>
+        <v>6077</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>6079</v>
+        <v>6078</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>6080</v>
+        <v>6079</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>6081</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>6082</v>
+        <v>6081</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>6083</v>
+        <v>6082</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>6084</v>
+        <v>6083</v>
       </c>
     </row>
   </sheetData>
